--- a/backend/services/system-setting/src/test/resources/file/user_import_error_all.xlsx
+++ b/backend/services/system-setting/src/test/resources/file/user_import_error_all.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="20640"/>
+    <workbookView windowWidth="3264" windowHeight="22440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <r>
       <rPr>
@@ -73,9 +73,6 @@
     <t>aaaaa1</t>
   </si>
   <si>
-    <t>宋天阳import2</t>
-  </si>
-  <si>
     <t>aaaaa2</t>
   </si>
   <si>
@@ -133,9 +130,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -162,37 +159,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,40 +210,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -259,14 +234,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -276,14 +280,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,9 +294,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,181 +325,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,6 +534,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -553,16 +583,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,6 +614,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -592,132 +631,90 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -726,7 +723,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -738,49 +735,49 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1116,7 +1113,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1145,12 +1142,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+    <row r="3" spans="2:3">
+      <c r="B3" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="C3">
         <v>111</v>
@@ -1158,10 +1152,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="C4">
         <v>222</v>
@@ -1169,10 +1163,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="C5">
         <v>333</v>
@@ -1180,50 +1174,50 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
